--- a/router_connection/ZTE/routers.xlsx
+++ b/router_connection/ZTE/routers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="router_test" sheetId="1" state="visible" r:id="rId2"/>
@@ -137,20 +137,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>

--- a/router_connection/ZTE/routers.xlsx
+++ b/router_connection/ZTE/routers.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="router_test" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,15 +20,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">10.254.172.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.254.172.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.254.172.10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t xml:space="preserve">10.254.177.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.135.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.135.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.135.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.135.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.254.177.20</t>
   </si>
 </sst>
 </file>
@@ -108,8 +219,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -129,36 +240,222 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
